--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL380_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL380_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CP05MOAS-GL380\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1596" yWindow="1320" windowWidth="23004" windowHeight="8256" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="1590" yWindow="1320" windowWidth="23010" windowHeight="8250" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,7 +576,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,21 +788,21 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
@@ -840,7 +840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -856,7 +856,9 @@
       <c r="E2" s="20">
         <v>41919</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
       <c r="G2" s="20">
         <v>42015</v>
       </c>
@@ -900,21 +902,21 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -940,7 +942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
@@ -976,7 +978,7 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1012,7 +1014,7 @@
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1048,7 +1050,7 @@
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1084,7 +1086,7 @@
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="10"/>
@@ -1104,7 +1106,7 @@
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
     </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
@@ -1135,7 +1137,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1166,7 +1168,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1197,7 +1199,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1228,7 +1230,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="10"/>
@@ -1243,7 +1245,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
@@ -1270,7 +1272,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:18" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="10"/>
@@ -1285,7 +1287,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1312,7 +1314,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:18" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="10"/>
@@ -1327,7 +1329,7 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
@@ -1354,7 +1356,7 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="10"/>
@@ -1369,7 +1371,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL380_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL380_00001.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Ref Des</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>N00155</t>
+  </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +353,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -408,6 +417,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -901,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,8 +1360,12 @@
       <c r="F16" s="14">
         <v>50159</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL380_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL380_00001.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="1320" windowWidth="23010" windowHeight="8250" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="1590" yWindow="1320" windowWidth="23010" windowHeight="8250" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Ref Des</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>CC_bsipar_par_scaling</t>
+  </si>
+  <si>
+    <t>OL000355</t>
   </si>
 </sst>
 </file>
@@ -799,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1403,9 @@
       <c r="D18" s="10">
         <v>1</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="14">
         <v>380</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL380_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL380_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="1320" windowWidth="23010" windowHeight="8250" tabRatio="377"/>
+    <workbookView xWindow="4140" yWindow="2620" windowWidth="26680" windowHeight="9300" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$81</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$359</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -556,7 +551,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,7 +586,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -803,21 +798,21 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
@@ -855,7 +850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -872,7 +867,7 @@
         <v>41919</v>
       </c>
       <c r="F2" s="6">
-        <v>0</v>
+        <v>4.5833333333333337E-2</v>
       </c>
       <c r="G2" s="20">
         <v>42015</v>
@@ -920,18 +915,18 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -957,7 +952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
@@ -993,7 +988,7 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1029,7 +1024,7 @@
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1065,7 +1060,7 @@
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1101,7 +1096,7 @@
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="10"/>
@@ -1121,7 +1116,7 @@
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
     </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="1" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
@@ -1152,7 +1147,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1183,7 +1178,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="1" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1214,7 +1209,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="1" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1245,7 +1240,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="1" customFormat="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="10"/>
@@ -1260,7 +1255,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="1" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
@@ -1287,7 +1282,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="1" customFormat="1">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="10"/>
@@ -1302,7 +1297,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="1" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1329,7 +1324,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" s="1" customFormat="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="10"/>
@@ -1344,7 +1339,7 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="1" customFormat="1">
       <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
@@ -1375,7 +1370,7 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="1" customFormat="1">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="10"/>
@@ -1390,7 +1385,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="1" customFormat="1">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
